--- a/workingDirectory/Günlükler.xlsx
+++ b/workingDirectory/Günlükler.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <x:si>
     <x:t>Kimden</x:t>
   </x:si>
@@ -48,82 +48,85 @@
     <x:t>ex_metine@koczer.com</x:t>
   </x:si>
   <x:si>
-    <x:t>09/19/2019 09:09:52</x:t>
+    <x:t>09/19/2019 13:56:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>q</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lütfen zorunlu alanları kontrol ediniz.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09/19/2019 13:55:24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Talep işleme alınmıştır.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tamamlandı</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09/19/2019 13:54:55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09/19/2019 15:15:19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lkj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09/19/2019 15:18:42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dogru tek</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09/19/2019 15:18:33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YANLIŞ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09/19/2019 15:29:16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RE: YANLIŞ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ek sayısı uyuşmadı.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09/19/2019 15:18:21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dogru</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09/19/2019 15:29:54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RE: dogru</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09/19/2019 15:40:33</x:t>
   </x:si>
   <x:si>
     <x:t>yanlış</x:t>
   </x:si>
   <x:si>
-    <x:t>Lütfen zorunlu alanları kontrol ediniz.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09/19/2019 09:09:39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dogru</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Talep işleme alınmıştır.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tamamlandı</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09/19/2019 09:10:05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RE: yanlış</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kural bulunamadı</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09/19/2019 09:38:59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ek sayısı uyuşmadı.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09/19/2019 09:20:27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RE: dogru</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09/19/2019 09:11:17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09/19/2019 09:11:16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09/19/2019 09:58:50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09/19/2019 09:58:49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09/19/2019 10:04:53</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09/19/2019 10:04:52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09/19/2019 10:04:51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09/19/2019 10:19:09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09/19/2019 10:19:01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>yy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ekteki sütunlar hatalı.</x:t>
+    <x:t>09/19/2019 15:40:17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dogru 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09/19/2019 15:40:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09/19/2019 16:09:15</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -462,10 +465,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F26"/>
+  <x:dimension ref="A1:F3"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A2" sqref="A2 A2:A2 A2:XFD7"/>
+    <x:sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <x:selection activeCell="B12" sqref="B12 B12:B12"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +499,7 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:6">
+    <x:row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A2" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
@@ -507,11 +510,12 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D2" s="2" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E2" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
+      <x:c r="F2" s="2" t="s"/>
     </x:row>
     <x:row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <x:c r="A3" s="2" t="s">
@@ -533,63 +537,61 @@
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="4" spans="1:6">
       <x:c r="A4" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E4" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F4" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6">
+      <x:c r="A5" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C4" s="2" t="s">
+      <x:c r="C5" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D4" s="2" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E4" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="F4" s="2" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <x:c r="A5" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="D5" s="2" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F5" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6">
       <x:c r="A6" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D6" s="2" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E6" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="F6" s="2" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6">
       <x:c r="A7" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
@@ -600,28 +602,30 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D7" s="2" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E7" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="F7" s="2" t="s"/>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D8" s="2" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E8" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F8" s="2" t="s">
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
@@ -629,16 +633,16 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D9" s="2" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E9" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
@@ -649,19 +653,16 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D10" s="2" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E10" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F10" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:6">
       <x:c r="A11" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
@@ -672,10 +673,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D11" s="2" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E11" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s">
         <x:v>13</x:v>
@@ -686,16 +687,16 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D12" s="2" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E12" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s">
         <x:v>13</x:v>
@@ -706,19 +707,16 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D13" s="2" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E13" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F13" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
@@ -729,13 +727,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D14" s="2" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E14" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s">
         <x:v>13</x:v>
@@ -746,16 +744,16 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D15" s="2" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E15" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s">
         <x:v>13</x:v>
@@ -766,16 +764,16 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D16" s="2" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E16" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s">
         <x:v>13</x:v>
@@ -786,13 +784,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D17" s="2" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E17" s="2" t="s">
         <x:v>9</x:v>
@@ -806,39 +804,33 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D18" s="2" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E18" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F18" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6">
       <x:c r="A19" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D19" s="2" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E19" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F19" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6">
@@ -846,39 +838,33 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D20" s="2" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E20" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="F20" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </x:row>
+    <x:row r="21" spans="1:6">
       <x:c r="A21" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D21" s="2" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E21" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F21" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:6">
@@ -886,16 +872,16 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D22" s="2" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E22" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s">
         <x:v>13</x:v>
@@ -906,19 +892,16 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D23" s="2" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E23" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F23" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:6">
@@ -926,19 +909,16 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D24" s="2" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E24" s="2" t="s">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="F24" s="2" t="s">
-        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6">
@@ -946,10 +926,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D25" s="2" t="n">
         <x:v>3</x:v>
@@ -961,24 +941,21 @@
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="26" spans="1:6">
       <x:c r="A26" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D26" s="2" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E26" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:6">
@@ -986,16 +963,16 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D27" s="2" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E27" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s">
         <x:v>13</x:v>
@@ -1006,19 +983,16 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D28" s="2" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E28" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:6">
@@ -1026,16 +1000,16 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D29" s="2" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E29" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s">
         <x:v>13</x:v>
@@ -1055,10 +1029,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E30" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:6">
@@ -1075,9 +1046,140 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E31" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:6">
+      <x:c r="A32" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="F31" s="2" t="s">
+      <x:c r="C32" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E32" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:6">
+      <x:c r="A33" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E33" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:6">
+      <x:c r="A34" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E34" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:6">
+      <x:c r="A35" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E35" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:6">
+      <x:c r="A36" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E36" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:6">
+      <x:c r="A37" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E37" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:6">
+      <x:c r="A38" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E38" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
